--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J2">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N2">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q2">
-        <v>801.8256716925412</v>
+        <v>8.715899392009332</v>
       </c>
       <c r="R2">
-        <v>801.8256716925412</v>
+        <v>78.44309452808399</v>
       </c>
       <c r="S2">
-        <v>0.2806757394618205</v>
+        <v>0.002388698369756672</v>
       </c>
       <c r="T2">
-        <v>0.2806757394618205</v>
+        <v>0.002388698369756672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J3">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q3">
-        <v>241.2544970877441</v>
+        <v>2.247930444996888</v>
       </c>
       <c r="R3">
-        <v>241.2544970877441</v>
+        <v>20.231374004972</v>
       </c>
       <c r="S3">
-        <v>0.08445013268988619</v>
+        <v>0.0006160727135300905</v>
       </c>
       <c r="T3">
-        <v>0.08445013268988619</v>
+        <v>0.000616072713530091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J4">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N4">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q4">
-        <v>41.22901432213659</v>
+        <v>0.4130001800604445</v>
       </c>
       <c r="R4">
-        <v>41.22901432213659</v>
+        <v>3.717001620544</v>
       </c>
       <c r="S4">
-        <v>0.0144320448829243</v>
+        <v>0.0001131877288216568</v>
       </c>
       <c r="T4">
-        <v>0.0144320448829243</v>
+        <v>0.0001131877288216568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H5">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I5">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J5">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N5">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q5">
-        <v>41.55956546589059</v>
+        <v>0.3862155122624444</v>
       </c>
       <c r="R5">
-        <v>41.55956546589059</v>
+        <v>3.475939610362</v>
       </c>
       <c r="S5">
-        <v>0.01454775293515873</v>
+        <v>0.0001058470644305311</v>
       </c>
       <c r="T5">
-        <v>0.01454775293515873</v>
+        <v>0.0001058470644305312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H6">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I6">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J6">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N6">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q6">
-        <v>13.10057986126481</v>
+        <v>0.1210409823726667</v>
       </c>
       <c r="R6">
-        <v>13.10057986126481</v>
+        <v>1.089368841354</v>
       </c>
       <c r="S6">
-        <v>0.004585803460467253</v>
+        <v>3.317275524456E-05</v>
       </c>
       <c r="T6">
-        <v>0.004585803460467253</v>
+        <v>3.317275524456001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H7">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I7">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J7">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N7">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q7">
-        <v>43.93923122993882</v>
+        <v>0.4324989127222222</v>
       </c>
       <c r="R7">
-        <v>43.93923122993882</v>
+        <v>3.8924902145</v>
       </c>
       <c r="S7">
-        <v>0.01538074503253862</v>
+        <v>0.0001185315939612901</v>
       </c>
       <c r="T7">
-        <v>0.01538074503253862</v>
+        <v>0.0001185315939612901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H8">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N8">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q8">
-        <v>1015.386275387832</v>
+        <v>997.9190024173846</v>
       </c>
       <c r="R8">
-        <v>1015.386275387832</v>
+        <v>8981.271021756462</v>
       </c>
       <c r="S8">
-        <v>0.3554317400218439</v>
+        <v>0.2734918551732014</v>
       </c>
       <c r="T8">
-        <v>0.3554317400218439</v>
+        <v>0.2734918551732015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H9">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q9">
-        <v>305.510928206376</v>
+        <v>257.3747591937051</v>
       </c>
       <c r="R9">
-        <v>305.510928206376</v>
+        <v>2316.372832743346</v>
       </c>
       <c r="S9">
-        <v>0.1069428289904795</v>
+        <v>0.07053668704186218</v>
       </c>
       <c r="T9">
-        <v>0.1069428289904795</v>
+        <v>0.07053668704186222</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H10">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N10">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q10">
-        <v>52.21007105210062</v>
+        <v>47.28608134944356</v>
       </c>
       <c r="R10">
-        <v>52.21007105210062</v>
+        <v>425.574732144992</v>
       </c>
       <c r="S10">
-        <v>0.01827591809198349</v>
+        <v>0.01295932643912237</v>
       </c>
       <c r="T10">
-        <v>0.01827591809198349</v>
+        <v>0.01295932643912238</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H11">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N11">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q11">
-        <v>52.62866215803651</v>
+        <v>44.21939508255455</v>
       </c>
       <c r="R11">
-        <v>52.62866215803651</v>
+        <v>397.974555742991</v>
       </c>
       <c r="S11">
-        <v>0.01842244416658858</v>
+        <v>0.01211886372187385</v>
       </c>
       <c r="T11">
-        <v>0.01842244416658858</v>
+        <v>0.01211886372187385</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H12">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N12">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q12">
-        <v>16.5898267670472</v>
+        <v>13.85847758771633</v>
       </c>
       <c r="R12">
-        <v>16.5898267670472</v>
+        <v>124.726298289447</v>
       </c>
       <c r="S12">
-        <v>0.005807199818827891</v>
+        <v>0.003798084550108117</v>
       </c>
       <c r="T12">
-        <v>0.005807199818827891</v>
+        <v>0.003798084550108118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H13">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N13">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q13">
-        <v>55.6421350887852</v>
+        <v>49.51857107552777</v>
       </c>
       <c r="R13">
-        <v>55.6421350887852</v>
+        <v>445.66713967975</v>
       </c>
       <c r="S13">
-        <v>0.01947729782499127</v>
+        <v>0.01357116743559887</v>
       </c>
       <c r="T13">
-        <v>0.01947729782499127</v>
+        <v>0.01357116743559888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H14">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N14">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q14">
-        <v>119.2272438154656</v>
+        <v>108.7641933101533</v>
       </c>
       <c r="R14">
-        <v>119.2272438154656</v>
+        <v>978.8777397913799</v>
       </c>
       <c r="S14">
-        <v>0.04173500051608769</v>
+        <v>0.02980815169643304</v>
       </c>
       <c r="T14">
-        <v>0.04173500051608769</v>
+        <v>0.02980815169643305</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H15">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q15">
-        <v>35.87326991556782</v>
+        <v>28.05153323494888</v>
       </c>
       <c r="R15">
-        <v>35.87326991556782</v>
+        <v>252.46379911454</v>
       </c>
       <c r="S15">
-        <v>0.01255728884211421</v>
+        <v>0.007687864291885774</v>
       </c>
       <c r="T15">
-        <v>0.01255728884211421</v>
+        <v>0.007687864291885779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H16">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N16">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q16">
-        <v>6.130536744328123</v>
+        <v>5.153757449564445</v>
       </c>
       <c r="R16">
-        <v>6.130536744328123</v>
+        <v>46.38381704608</v>
       </c>
       <c r="S16">
-        <v>0.002145968874231748</v>
+        <v>0.001412449991010946</v>
       </c>
       <c r="T16">
-        <v>0.002145968874231748</v>
+        <v>0.001412449991010946</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H17">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N17">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q17">
-        <v>6.179687954124947</v>
+        <v>4.819516236454444</v>
       </c>
       <c r="R17">
-        <v>6.179687954124947</v>
+        <v>43.37564612809</v>
       </c>
       <c r="S17">
-        <v>0.002163174050671218</v>
+        <v>0.00132084711620111</v>
       </c>
       <c r="T17">
-        <v>0.002163174050671218</v>
+        <v>0.001320847116201111</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H18">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N18">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q18">
-        <v>1.947987055522866</v>
+        <v>1.510449376836667</v>
       </c>
       <c r="R18">
-        <v>1.947987055522866</v>
+        <v>13.59404439153</v>
       </c>
       <c r="S18">
-        <v>0.0006818847619543246</v>
+        <v>0.0004139570458279405</v>
       </c>
       <c r="T18">
-        <v>0.0006818847619543246</v>
+        <v>0.0004139570458279406</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.88887</v>
+      </c>
+      <c r="I19">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J19">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N19">
+        <v>25.71575</v>
+      </c>
+      <c r="O19">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P19">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q19">
+        <v>5.397078744722222</v>
+      </c>
+      <c r="R19">
+        <v>48.5737087025</v>
+      </c>
+      <c r="S19">
+        <v>0.001479135155092041</v>
+      </c>
+      <c r="T19">
+        <v>0.001479135155092042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.352184</v>
+      </c>
+      <c r="H20">
+        <v>1.056552</v>
+      </c>
+      <c r="I20">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J20">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>172.744858</v>
+      </c>
+      <c r="N20">
+        <v>518.234574</v>
+      </c>
+      <c r="O20">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P20">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q20">
+        <v>60.83797506987199</v>
+      </c>
+      <c r="R20">
+        <v>547.541775628848</v>
+      </c>
+      <c r="S20">
+        <v>0.01667338794685167</v>
+      </c>
+      <c r="T20">
+        <v>0.01667338794685168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.352184</v>
+      </c>
+      <c r="H21">
+        <v>1.056552</v>
+      </c>
+      <c r="I21">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J21">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N21">
+        <v>133.658642</v>
+      </c>
+      <c r="O21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q21">
+        <v>15.69081172470933</v>
+      </c>
+      <c r="R21">
+        <v>141.217305522384</v>
+      </c>
+      <c r="S21">
+        <v>0.004300258034338255</v>
+      </c>
+      <c r="T21">
+        <v>0.004300258034338257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.352184</v>
+      </c>
+      <c r="H22">
+        <v>1.056552</v>
+      </c>
+      <c r="I22">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J22">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N22">
+        <v>24.556384</v>
+      </c>
+      <c r="O22">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P22">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q22">
+        <v>2.882788514218667</v>
+      </c>
+      <c r="R22">
+        <v>25.945096627968</v>
+      </c>
+      <c r="S22">
+        <v>0.0007900632986402434</v>
+      </c>
+      <c r="T22">
+        <v>0.0007900632986402437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.352184</v>
+      </c>
+      <c r="H23">
+        <v>1.056552</v>
+      </c>
+      <c r="I23">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J23">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N23">
+        <v>22.963807</v>
+      </c>
+      <c r="O23">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P23">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q23">
+        <v>2.695828468162667</v>
+      </c>
+      <c r="R23">
+        <v>24.262456213464</v>
+      </c>
+      <c r="S23">
+        <v>0.0007388246212373088</v>
+      </c>
+      <c r="T23">
+        <v>0.0007388246212373092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.352184</v>
+      </c>
+      <c r="H24">
+        <v>1.056552</v>
+      </c>
+      <c r="I24">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J24">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.398973</v>
+      </c>
+      <c r="N24">
+        <v>7.196919</v>
+      </c>
+      <c r="O24">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P24">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q24">
+        <v>0.8448799070320001</v>
+      </c>
+      <c r="R24">
+        <v>7.603919163287999</v>
+      </c>
+      <c r="S24">
+        <v>0.0002315496273875927</v>
+      </c>
+      <c r="T24">
+        <v>0.0002315496273875928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.352184</v>
+      </c>
+      <c r="H25">
+        <v>1.056552</v>
+      </c>
+      <c r="I25">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J25">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N25">
+        <v>25.71575</v>
+      </c>
+      <c r="O25">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P25">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q25">
+        <v>3.018891899333333</v>
+      </c>
+      <c r="R25">
+        <v>27.170027094</v>
+      </c>
+      <c r="S25">
+        <v>0.0008273640887847266</v>
+      </c>
+      <c r="T25">
+        <v>0.000827364088784727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H26">
+        <v>21.947639</v>
+      </c>
+      <c r="I26">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J26">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>172.744858</v>
+      </c>
+      <c r="N26">
+        <v>518.234574</v>
+      </c>
+      <c r="O26">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P26">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q26">
+        <v>1263.780594163421</v>
+      </c>
+      <c r="R26">
+        <v>11374.02534747078</v>
+      </c>
+      <c r="S26">
+        <v>0.3463544620278526</v>
+      </c>
+      <c r="T26">
+        <v>0.3463544620278527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H27">
+        <v>21.947639</v>
+      </c>
+      <c r="I27">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J27">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N27">
+        <v>133.658642</v>
+      </c>
+      <c r="O27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q27">
+        <v>325.9435137606931</v>
+      </c>
+      <c r="R27">
+        <v>2933.491623846237</v>
+      </c>
+      <c r="S27">
+        <v>0.08932878925458058</v>
+      </c>
+      <c r="T27">
+        <v>0.08932878925458063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="H19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="I19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="J19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="N19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="O19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="P19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="Q19">
-        <v>6.533531688824285</v>
-      </c>
-      <c r="R19">
-        <v>6.533531688824285</v>
-      </c>
-      <c r="S19">
-        <v>0.002287035577430555</v>
-      </c>
-      <c r="T19">
-        <v>0.002287035577430555</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H28">
+        <v>21.947639</v>
+      </c>
+      <c r="I28">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J28">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N28">
+        <v>24.556384</v>
+      </c>
+      <c r="O28">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P28">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q28">
+        <v>59.88385013081956</v>
+      </c>
+      <c r="R28">
+        <v>538.954651177376</v>
+      </c>
+      <c r="S28">
+        <v>0.01641189838806349</v>
+      </c>
+      <c r="T28">
+        <v>0.0164118983880635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H29">
+        <v>21.947639</v>
+      </c>
+      <c r="I29">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J29">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N29">
+        <v>22.963807</v>
+      </c>
+      <c r="O29">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P29">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q29">
+        <v>56.00014956685255</v>
+      </c>
+      <c r="R29">
+        <v>504.0013461016729</v>
+      </c>
+      <c r="S29">
+        <v>0.01534752295317995</v>
+      </c>
+      <c r="T29">
+        <v>0.01534752295317996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H30">
+        <v>21.947639</v>
+      </c>
+      <c r="I30">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J30">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.398973</v>
+      </c>
+      <c r="N30">
+        <v>7.196919</v>
+      </c>
+      <c r="O30">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P30">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q30">
+        <v>17.55059779158233</v>
+      </c>
+      <c r="R30">
+        <v>157.955380124241</v>
+      </c>
+      <c r="S30">
+        <v>0.004809955054258946</v>
+      </c>
+      <c r="T30">
+        <v>0.004809955054258947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H31">
+        <v>21.947639</v>
+      </c>
+      <c r="I31">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J31">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N31">
+        <v>25.71575</v>
+      </c>
+      <c r="O31">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P31">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q31">
+        <v>62.71111084602778</v>
+      </c>
+      <c r="R31">
+        <v>564.39999761425</v>
+      </c>
+      <c r="S31">
+        <v>0.01718674361717277</v>
+      </c>
+      <c r="T31">
+        <v>0.01718674361717278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H32">
+        <v>2.467466</v>
+      </c>
+      <c r="I32">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J32">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>172.744858</v>
+      </c>
+      <c r="N32">
+        <v>518.234574</v>
+      </c>
+      <c r="O32">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P32">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q32">
+        <v>142.0806879299427</v>
+      </c>
+      <c r="R32">
+        <v>1278.726191369484</v>
+      </c>
+      <c r="S32">
+        <v>0.03893894277202288</v>
+      </c>
+      <c r="T32">
+        <v>0.03893894277202289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H33">
+        <v>2.467466</v>
+      </c>
+      <c r="I33">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J33">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N33">
+        <v>133.658642</v>
+      </c>
+      <c r="O33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q33">
+        <v>36.64423941568577</v>
+      </c>
+      <c r="R33">
+        <v>329.798154741172</v>
+      </c>
+      <c r="S33">
+        <v>0.01004280006185827</v>
+      </c>
+      <c r="T33">
+        <v>0.01004280006185827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H34">
+        <v>2.467466</v>
+      </c>
+      <c r="I34">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J34">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N34">
+        <v>24.556384</v>
+      </c>
+      <c r="O34">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P34">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q34">
+        <v>6.73244917810489</v>
+      </c>
+      <c r="R34">
+        <v>60.59204260294401</v>
+      </c>
+      <c r="S34">
+        <v>0.001845109684372039</v>
+      </c>
+      <c r="T34">
+        <v>0.00184510968437204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H35">
+        <v>2.467466</v>
+      </c>
+      <c r="I35">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J35">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N35">
+        <v>22.963807</v>
+      </c>
+      <c r="O35">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P35">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q35">
+        <v>6.295823667006888</v>
+      </c>
+      <c r="R35">
+        <v>56.662413003062</v>
+      </c>
+      <c r="S35">
+        <v>0.001725447145872553</v>
+      </c>
+      <c r="T35">
+        <v>0.001725447145872554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H36">
+        <v>2.467466</v>
+      </c>
+      <c r="I36">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J36">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.398973</v>
+      </c>
+      <c r="N36">
+        <v>7.196919</v>
+      </c>
+      <c r="O36">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P36">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q36">
+        <v>1.973128104139334</v>
+      </c>
+      <c r="R36">
+        <v>17.758152937254</v>
+      </c>
+      <c r="S36">
+        <v>0.0005407597855018529</v>
+      </c>
+      <c r="T36">
+        <v>0.0005407597855018532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H37">
+        <v>2.467466</v>
+      </c>
+      <c r="I37">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J37">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N37">
+        <v>25.71575</v>
+      </c>
+      <c r="O37">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P37">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q37">
+        <v>7.050304309944444</v>
+      </c>
+      <c r="R37">
+        <v>63.4527387895</v>
+      </c>
+      <c r="S37">
+        <v>0.001932221754061602</v>
+      </c>
+      <c r="T37">
+        <v>0.001932221754061603</v>
       </c>
     </row>
   </sheetData>
